--- a/test-excel/导入测试_标准格式.xlsx
+++ b/test-excel/导入测试_标准格式.xlsx
@@ -1,58 +1,609 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowHeight="17655"/>
+  </bookViews>
   <sheets>
     <sheet name="生产任务清单" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>任务ID</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>产品图号</t>
+  </si>
+  <si>
+    <t>工时</t>
+  </si>
+  <si>
+    <t>师傅姓名</t>
+  </si>
+  <si>
+    <t>批次号</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>委托时间</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>工时系数</t>
+  </si>
+  <si>
+    <t>TASK-001</t>
+  </si>
+  <si>
+    <t>精密轴承套</t>
+  </si>
+  <si>
+    <t>BRG-2024-001</t>
+  </si>
+  <si>
+    <t>潘敏</t>
+  </si>
+  <si>
+    <t>BATCH-20240101</t>
+  </si>
+  <si>
+    <t>华东机械厂</t>
+  </si>
+  <si>
+    <t>TASK-002</t>
+  </si>
+  <si>
+    <t>传动齿轮</t>
+  </si>
+  <si>
+    <t>GER-2024-002</t>
+  </si>
+  <si>
+    <t>黄尚斌</t>
+  </si>
+  <si>
+    <t>BATCH-20240102</t>
+  </si>
+  <si>
+    <t>北方重工</t>
+  </si>
+  <si>
+    <t>TASK-003</t>
+  </si>
+  <si>
+    <t>液压缸体</t>
+  </si>
+  <si>
+    <t>HYD-2024-003</t>
+  </si>
+  <si>
+    <t>蒋怀东</t>
+  </si>
+  <si>
+    <t>BATCH-20240103</t>
+  </si>
+  <si>
+    <t>南方液压</t>
+  </si>
+  <si>
+    <t>TASK-004</t>
+  </si>
+  <si>
+    <t>连接法兰</t>
+  </si>
+  <si>
+    <t>FLG-2024-004</t>
+  </si>
+  <si>
+    <t>钱伟</t>
+  </si>
+  <si>
+    <t>BATCH-20240104</t>
+  </si>
+  <si>
+    <t>东海造船</t>
+  </si>
+  <si>
+    <t>TASK-005</t>
+  </si>
+  <si>
+    <t>活塞杆</t>
+  </si>
+  <si>
+    <t>ROD-2024-005</t>
+  </si>
+  <si>
+    <t>谢守刚</t>
+  </si>
+  <si>
+    <t>BATCH-20240105</t>
+  </si>
+  <si>
+    <t>西部机械</t>
+  </si>
+  <si>
+    <t>TASK-006</t>
+  </si>
+  <si>
+    <t>转向节</t>
+  </si>
+  <si>
+    <t>STR-2024-006</t>
+  </si>
+  <si>
+    <t>王章良</t>
+  </si>
+  <si>
+    <t>BATCH-20240106</t>
+  </si>
+  <si>
+    <t>汽车零部件厂</t>
+  </si>
+  <si>
+    <t>TASK-007</t>
+  </si>
+  <si>
+    <t>减速箱壳体</t>
+  </si>
+  <si>
+    <t>GBX-2024-007</t>
+  </si>
+  <si>
+    <t>昂洪涛</t>
+  </si>
+  <si>
+    <t>BATCH-20240107</t>
+  </si>
+  <si>
+    <t>风电设备厂</t>
+  </si>
+  <si>
+    <t>TASK-008</t>
+  </si>
+  <si>
+    <t>密封圈槽</t>
+  </si>
+  <si>
+    <t>SEL-2024-008</t>
+  </si>
+  <si>
+    <t>江峰</t>
+  </si>
+  <si>
+    <t>BATCH-20240108</t>
+  </si>
+  <si>
+    <t>石化设备厂</t>
+  </si>
+  <si>
+    <t>TASK-009</t>
+  </si>
+  <si>
+    <t>主轴承座</t>
+  </si>
+  <si>
+    <t>BRG-2024-009</t>
+  </si>
+  <si>
+    <t>叶建辉</t>
+  </si>
+  <si>
+    <t>BATCH-20240109</t>
+  </si>
+  <si>
+    <t>重型机械厂</t>
+  </si>
+  <si>
+    <t>TASK-010</t>
+  </si>
+  <si>
+    <t>联轴器</t>
+  </si>
+  <si>
+    <t>CPL-2024-010</t>
+  </si>
+  <si>
+    <t>周博</t>
+  </si>
+  <si>
+    <t>BATCH-20240110</t>
+  </si>
+  <si>
+    <t>电机制造厂</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,18 +611,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,85 +1237,87 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.8333333333333" customWidth="1"/>
+    <col min="2" max="3" width="15.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.83333333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="15.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="8.83333333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>任务ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>产品名称</v>
-      </c>
-      <c r="C1" t="str">
-        <v>产品图号</v>
-      </c>
-      <c r="D1" t="str">
-        <v>工时</v>
-      </c>
-      <c r="E1" t="str">
-        <v>师傅姓名</v>
-      </c>
-      <c r="F1" t="str">
-        <v>批次号</v>
-      </c>
-      <c r="G1" t="str">
-        <v>客户名称</v>
-      </c>
-      <c r="H1" t="str">
-        <v>提交时间</v>
-      </c>
-      <c r="I1" t="str">
-        <v>优先级</v>
-      </c>
-      <c r="J1" t="str">
-        <v>工时系数</v>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>TASK-001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>精密轴承套</v>
-      </c>
-      <c r="C2" t="str">
-        <v>BRG-2024-001</v>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
         <v>8.5</v>
       </c>
-      <c r="E2" t="str">
-        <v>潘敏</v>
-      </c>
-      <c r="F2" t="str">
-        <v>BATCH-20240101</v>
-      </c>
-      <c r="G2" t="str">
-        <v>华东机械厂</v>
-      </c>
-      <c r="H2" t="str">
-        <v>2024-01-15 09:00:00</v>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45849.375</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -478,30 +1326,30 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>TASK-002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>传动齿轮</v>
-      </c>
-      <c r="C3" t="str">
-        <v>GER-2024-002</v>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
-      <c r="E3" t="str">
-        <v>黄尚斌</v>
-      </c>
-      <c r="F3" t="str">
-        <v>BATCH-20240102</v>
-      </c>
-      <c r="G3" t="str">
-        <v>北方重工</v>
-      </c>
-      <c r="H3" t="str">
-        <v>2024-01-15 10:30:00</v>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45850.375</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -510,30 +1358,30 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>TASK-003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>液压缸体</v>
-      </c>
-      <c r="C4" t="str">
-        <v>HYD-2024-003</v>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
       </c>
       <c r="D4">
         <v>16.5</v>
       </c>
-      <c r="E4" t="str">
-        <v>蒋怀东</v>
-      </c>
-      <c r="F4" t="str">
-        <v>BATCH-20240103</v>
-      </c>
-      <c r="G4" t="str">
-        <v>南方液压</v>
-      </c>
-      <c r="H4" t="str">
-        <v>2024-01-15 14:00:00</v>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45851.375</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -542,30 +1390,30 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>TASK-004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>连接法兰</v>
-      </c>
-      <c r="C5" t="str">
-        <v>FLG-2024-004</v>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="str">
-        <v>钱伟</v>
-      </c>
-      <c r="F5" t="str">
-        <v>BATCH-20240104</v>
-      </c>
-      <c r="G5" t="str">
-        <v>东海造船</v>
-      </c>
-      <c r="H5" t="str">
-        <v>2024-01-16 08:00:00</v>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45852.375</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -574,30 +1422,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>TASK-005</v>
-      </c>
-      <c r="B6" t="str">
-        <v>活塞杆</v>
-      </c>
-      <c r="C6" t="str">
-        <v>ROD-2024-005</v>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
       </c>
       <c r="D6">
         <v>10.5</v>
       </c>
-      <c r="E6" t="str">
-        <v>谢守刚</v>
-      </c>
-      <c r="F6" t="str">
-        <v>BATCH-20240105</v>
-      </c>
-      <c r="G6" t="str">
-        <v>西部机械</v>
-      </c>
-      <c r="H6" t="str">
-        <v>2024-01-16 13:30:00</v>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45853.375</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -606,30 +1454,30 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>TASK-006</v>
-      </c>
-      <c r="B7" t="str">
-        <v>转向节</v>
-      </c>
-      <c r="C7" t="str">
-        <v>STR-2024-006</v>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
       </c>
       <c r="D7">
         <v>14</v>
       </c>
-      <c r="E7" t="str">
-        <v>王章良</v>
-      </c>
-      <c r="F7" t="str">
-        <v>BATCH-20240106</v>
-      </c>
-      <c r="G7" t="str">
-        <v>汽车零部件厂</v>
-      </c>
-      <c r="H7" t="str">
-        <v>2024-01-17 09:15:00</v>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45854.375</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -638,30 +1486,30 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>TASK-007</v>
-      </c>
-      <c r="B8" t="str">
-        <v>减速箱壳体</v>
-      </c>
-      <c r="C8" t="str">
-        <v>GBX-2024-007</v>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" t="str">
-        <v>昂洪涛</v>
-      </c>
-      <c r="F8" t="str">
-        <v>BATCH-20240107</v>
-      </c>
-      <c r="G8" t="str">
-        <v>风电设备厂</v>
-      </c>
-      <c r="H8" t="str">
-        <v>2024-01-17 15:45:00</v>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45855.375</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -670,30 +1518,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>TASK-008</v>
-      </c>
-      <c r="B9" t="str">
-        <v>密封圈槽</v>
-      </c>
-      <c r="C9" t="str">
-        <v>SEL-2024-008</v>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
       </c>
       <c r="D9">
         <v>4.5</v>
       </c>
-      <c r="E9" t="str">
-        <v>江峰</v>
-      </c>
-      <c r="F9" t="str">
-        <v>BATCH-20240108</v>
-      </c>
-      <c r="G9" t="str">
-        <v>石化设备厂</v>
-      </c>
-      <c r="H9" t="str">
-        <v>2024-01-18 10:00:00</v>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45856.375</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -702,30 +1550,30 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>TASK-009</v>
-      </c>
-      <c r="B10" t="str">
-        <v>主轴承座</v>
-      </c>
-      <c r="C10" t="str">
-        <v>BRG-2024-009</v>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
       </c>
       <c r="D10">
         <v>18.5</v>
       </c>
-      <c r="E10" t="str">
-        <v>叶建辉</v>
-      </c>
-      <c r="F10" t="str">
-        <v>BATCH-20240109</v>
-      </c>
-      <c r="G10" t="str">
-        <v>重型机械厂</v>
-      </c>
-      <c r="H10" t="str">
-        <v>2024-01-18 16:20:00</v>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45857.375</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -734,30 +1582,30 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>TASK-010</v>
-      </c>
-      <c r="B11" t="str">
-        <v>联轴器</v>
-      </c>
-      <c r="C11" t="str">
-        <v>CPL-2024-010</v>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
       </c>
       <c r="D11">
         <v>7.5</v>
       </c>
-      <c r="E11" t="str">
-        <v>周博</v>
-      </c>
-      <c r="F11" t="str">
-        <v>BATCH-20240110</v>
-      </c>
-      <c r="G11" t="str">
-        <v>电机制造厂</v>
-      </c>
-      <c r="H11" t="str">
-        <v>2024-01-19 11:30:00</v>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45858.375</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -767,8 +1615,10 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J11"/>
+    <ignoredError sqref="A1:G2 I1:J2 A3:G11 I3:J11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>